--- a/data-raw/NutrientData/nutrientDetails/composites.crop.lookup.xlsx
+++ b/data-raw/NutrientData/nutrientDetails/composites.crop.lookup.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$172</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="319">
   <si>
     <t>item_name</t>
   </si>
@@ -704,15 +704,6 @@
     <t>Seeds, sesame seeds, whole, dried</t>
   </si>
   <si>
-    <t>Mustard seed</t>
-  </si>
-  <si>
-    <t>02024</t>
-  </si>
-  <si>
-    <t>Spices, mustard seed, ground</t>
-  </si>
-  <si>
     <t>Poppy seed</t>
   </si>
   <si>
@@ -977,18 +968,12 @@
     <t>ctols</t>
   </si>
   <si>
-    <t>Note: removed groundnuts, sunflower seed and rapeseed from earlier version because they are each IMPACT single commodities</t>
-  </si>
-  <si>
     <t>ctool</t>
   </si>
   <si>
     <t>cvege</t>
   </si>
   <si>
-    <t>Note: removed soybeans,  groundnuts,  rapeseedand mustard seed because they are IMPACT single crops (rape and mustard are combined)</t>
-  </si>
-  <si>
     <t>remove because already in mushrooms, raw</t>
   </si>
   <si>
@@ -996,6 +981,12 @@
   </si>
   <si>
     <t>remove</t>
+  </si>
+  <si>
+    <t>Note: removed groundnuts, sunflower seed and rapeseed from earlier version because they are each IMPACT single commodities. Also mustard seed.</t>
+  </si>
+  <si>
+    <t>Note: removed soybeans,  groundnuts,  rapeseed and mustard seed because they are IMPACT single crops (rape and mustard are combined)</t>
   </si>
 </sst>
 </file>
@@ -1660,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1692,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1741,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1764,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1787,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1806,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1829,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1848,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1867,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1886,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -1909,7 +1900,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E12" s="71">
         <v>181</v>
@@ -1918,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1938,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1955,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1972,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1989,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2006,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2021,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2036,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2053,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2068,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2091,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2114,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2137,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2160,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2183,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2206,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2229,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2248,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2271,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2294,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2317,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2340,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2359,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2378,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2397,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2420,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2443,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2462,10 +2453,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2488,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -2511,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2534,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2557,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -2580,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2603,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -2626,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2649,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -2672,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -2695,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2718,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -2741,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2764,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2787,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -2810,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2829,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2848,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -2871,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -2894,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2917,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2940,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2963,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2986,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3009,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3032,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="56" x14ac:dyDescent="0.2">
@@ -3055,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3078,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3101,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3124,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3143,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3166,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3185,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3208,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3231,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3254,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3277,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -3315,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3334,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3353,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3372,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3391,7 +3382,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3410,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -3429,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3452,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3475,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="42" x14ac:dyDescent="0.2">
@@ -3498,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -3521,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3540,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3563,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -3586,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3609,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -3632,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3655,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -3678,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -3701,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -3724,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3747,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H97" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -3769,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -3792,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3811,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3830,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -3849,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -3868,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="28" x14ac:dyDescent="0.2">
@@ -3891,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -3914,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -3931,41 +3922,37 @@
         <v>1</v>
       </c>
       <c r="E106" s="69">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F106" s="10">
         <v>0</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="54">
+        <v>0</v>
+      </c>
+      <c r="E107" s="69">
+        <v>299</v>
+      </c>
+      <c r="F107" s="10">
+        <v>1</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D107" s="54">
-        <v>1</v>
-      </c>
-      <c r="E107" s="69">
-        <v>296</v>
-      </c>
-      <c r="F107" s="10">
-        <v>0</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="B108" s="41"/>
       <c r="C108" s="42"/>
@@ -3973,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="E108" s="69">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F108" s="10">
         <v>1</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B109" s="41"/>
       <c r="C109" s="42"/>
@@ -3992,208 +3979,208 @@
         <v>0</v>
       </c>
       <c r="E109" s="69">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F109" s="10">
         <v>1</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="67">
+        <v>0</v>
+      </c>
+      <c r="E110" s="69">
+        <v>328</v>
+      </c>
+      <c r="F110" s="10">
+        <v>1</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" s="1">
+        <v>12160</v>
+      </c>
+      <c r="C111" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="54">
-        <v>0</v>
-      </c>
-      <c r="E110" s="69">
-        <v>310</v>
-      </c>
-      <c r="F110" s="10">
-        <v>1</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+      <c r="D111" s="54">
+        <v>1</v>
+      </c>
+      <c r="E111" s="69">
+        <v>329</v>
+      </c>
+      <c r="F111" s="10">
+        <v>0</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="67">
-        <v>0</v>
-      </c>
-      <c r="E111" s="69">
-        <v>328</v>
-      </c>
-      <c r="F111" s="10">
-        <v>1</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="B112" s="41"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="54">
+        <v>0</v>
+      </c>
+      <c r="E112" s="69">
+        <v>333</v>
+      </c>
+      <c r="F112" s="10">
+        <v>1</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B112" s="1">
-        <v>12160</v>
-      </c>
-      <c r="C112" s="42" t="s">
+      <c r="B113" s="1">
+        <v>12012</v>
+      </c>
+      <c r="C113" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="D112" s="54">
-        <v>1</v>
-      </c>
-      <c r="E112" s="69">
-        <v>329</v>
-      </c>
-      <c r="F112" s="10">
-        <v>0</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
+      <c r="D113" s="54">
+        <v>1</v>
+      </c>
+      <c r="E113" s="69">
+        <v>336</v>
+      </c>
+      <c r="F113" s="10">
+        <v>0</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B113" s="41"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="54">
-        <v>0</v>
-      </c>
-      <c r="E113" s="69">
-        <v>333</v>
-      </c>
-      <c r="F113" s="10">
-        <v>1</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B114" s="1">
-        <v>12012</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D114" s="54">
-        <v>1</v>
-      </c>
-      <c r="E114" s="69">
-        <v>336</v>
+      <c r="B114" s="19"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="55">
+        <v>0</v>
+      </c>
+      <c r="E114" s="70">
+        <v>339</v>
       </c>
       <c r="F114" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="55">
-        <v>0</v>
-      </c>
-      <c r="E115" s="70">
-        <v>339</v>
+      <c r="A115" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="1">
+        <v>12104</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D115" s="54">
+        <v>1</v>
+      </c>
+      <c r="E115" s="69">
+        <v>249</v>
       </c>
       <c r="F115" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="H115" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B116" s="1">
-        <v>12104</v>
-      </c>
-      <c r="C116" s="42" t="s">
-        <v>209</v>
-      </c>
+      <c r="A116" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B116" s="41"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="69">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F116" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="H116" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B117" s="41"/>
-      <c r="C117" s="42"/>
+      <c r="A117" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>213</v>
+      </c>
       <c r="D117" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" s="69">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F117" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>213</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="41"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="69">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F118" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B119" s="41"/>
       <c r="C119" s="42"/>
@@ -4201,60 +4188,60 @@
         <v>0</v>
       </c>
       <c r="E119" s="69">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F119" s="10">
         <v>1</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B120" s="41"/>
-      <c r="C120" s="42"/>
+      <c r="A120" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" s="1">
+        <v>12036</v>
+      </c>
+      <c r="C120" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="D120" s="54">
         <v>0</v>
       </c>
       <c r="E120" s="69">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F120" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B121" s="1">
-        <v>12036</v>
-      </c>
-      <c r="C121" s="42" t="s">
-        <v>217</v>
-      </c>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" s="41"/>
+      <c r="C121" s="42"/>
       <c r="D121" s="54">
         <v>0</v>
       </c>
       <c r="E121" s="69">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F121" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B122" s="41"/>
       <c r="C122" s="42"/>
@@ -4262,106 +4249,106 @@
         <v>0</v>
       </c>
       <c r="E122" s="69">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F122" s="10">
         <v>1</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B123" s="41"/>
-      <c r="C123" s="42"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" s="1">
+        <v>12021</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>221</v>
+      </c>
       <c r="D123" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" s="69">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F123" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B124" s="1">
-        <v>12021</v>
+        <v>12023</v>
       </c>
       <c r="C124" s="42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D124" s="54">
         <v>1</v>
       </c>
       <c r="E124" s="69">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F124" s="10">
         <v>0</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="1">
-        <v>12023</v>
+        <v>224</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D125" s="54">
         <v>1</v>
       </c>
       <c r="E125" s="69">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F125" s="10">
         <v>0</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="54">
+        <v>0</v>
+      </c>
+      <c r="E126" s="69">
+        <v>299</v>
+      </c>
+      <c r="F126" s="10">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="C126" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D126" s="54">
-        <v>1</v>
-      </c>
-      <c r="E126" s="69">
-        <v>296</v>
-      </c>
-      <c r="F126" s="10">
-        <v>0</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="B127" s="41"/>
       <c r="C127" s="42"/>
@@ -4369,18 +4356,18 @@
         <v>0</v>
       </c>
       <c r="E127" s="69">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F127" s="10">
         <v>1</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B128" s="41"/>
       <c r="C128" s="42"/>
@@ -4388,373 +4375,377 @@
         <v>0</v>
       </c>
       <c r="E128" s="69">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F128" s="10">
         <v>1</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="67">
+        <v>0</v>
+      </c>
+      <c r="E129" s="69">
+        <v>328</v>
+      </c>
+      <c r="F129" s="10">
+        <v>1</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B130" s="1">
+        <v>12160</v>
+      </c>
+      <c r="C130" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="54">
-        <v>0</v>
-      </c>
-      <c r="E129" s="69">
-        <v>310</v>
-      </c>
-      <c r="F129" s="10">
-        <v>1</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
+      <c r="D130" s="54">
+        <v>1</v>
+      </c>
+      <c r="E130" s="69">
+        <v>329</v>
+      </c>
+      <c r="F130" s="10">
+        <v>0</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B130" s="22"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="67">
-        <v>0</v>
-      </c>
-      <c r="E130" s="69">
-        <v>328</v>
-      </c>
-      <c r="F130" s="10">
-        <v>1</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="B131" s="41"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="54">
+        <v>0</v>
+      </c>
+      <c r="E131" s="69">
+        <v>333</v>
+      </c>
+      <c r="F131" s="10">
+        <v>1</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B131" s="1">
-        <v>12160</v>
-      </c>
-      <c r="C131" s="42" t="s">
+      <c r="B132" s="1">
+        <v>12012</v>
+      </c>
+      <c r="C132" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="D131" s="54">
-        <v>1</v>
-      </c>
-      <c r="E131" s="69">
-        <v>329</v>
-      </c>
-      <c r="F131" s="10">
-        <v>0</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
+      <c r="D132" s="54">
+        <v>1</v>
+      </c>
+      <c r="E132" s="69">
+        <v>336</v>
+      </c>
+      <c r="F132" s="10">
+        <v>0</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B132" s="41"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="54">
-        <v>0</v>
-      </c>
-      <c r="E132" s="69">
-        <v>333</v>
-      </c>
-      <c r="F132" s="10">
-        <v>1</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="B133" s="19"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="55">
+        <v>0</v>
+      </c>
+      <c r="E133" s="70">
+        <v>339</v>
+      </c>
+      <c r="F133" s="10">
+        <v>1</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B133" s="1">
-        <v>12012</v>
-      </c>
-      <c r="C133" s="42" t="s">
+      <c r="B134" s="1">
+        <v>11007</v>
+      </c>
+      <c r="C134" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="D133" s="54">
-        <v>1</v>
-      </c>
-      <c r="E133" s="69">
-        <v>336</v>
-      </c>
-      <c r="F133" s="10">
-        <v>0</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="55">
-        <v>0</v>
-      </c>
-      <c r="E134" s="70">
-        <v>339</v>
+      <c r="D134" s="57">
+        <v>1</v>
+      </c>
+      <c r="E134" s="69">
+        <v>366</v>
       </c>
       <c r="F134" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" s="1">
+        <v>11011</v>
+      </c>
+      <c r="C135" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="B135" s="1">
-        <v>11007</v>
-      </c>
-      <c r="C135" s="45" t="s">
+      <c r="D135" s="57">
+        <v>1</v>
+      </c>
+      <c r="E135" s="69">
+        <v>367</v>
+      </c>
+      <c r="F135" s="10">
+        <v>0</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" s="1">
+        <v>11052</v>
+      </c>
+      <c r="C136" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D135" s="57">
-        <v>1</v>
-      </c>
-      <c r="E135" s="69">
-        <v>366</v>
-      </c>
-      <c r="F135" s="10">
-        <v>0</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+      <c r="D136" s="57">
+        <v>1</v>
+      </c>
+      <c r="E136" s="69">
+        <v>423</v>
+      </c>
+      <c r="F136" s="10">
+        <v>0</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B136" s="1">
-        <v>11011</v>
-      </c>
-      <c r="C136" s="45" t="s">
+      <c r="B137" s="1">
+        <v>11109</v>
+      </c>
+      <c r="C137" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="D136" s="57">
-        <v>1</v>
-      </c>
-      <c r="E136" s="69">
-        <v>367</v>
-      </c>
-      <c r="F136" s="10">
-        <v>0</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="B137" s="1">
-        <v>11052</v>
-      </c>
-      <c r="C137" s="45" t="s">
-        <v>244</v>
-      </c>
       <c r="D137" s="57">
         <v>1</v>
       </c>
       <c r="E137" s="69">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="F137" s="10">
         <v>0</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B138" s="1">
-        <v>11109</v>
+        <v>11124</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D138" s="57">
         <v>1</v>
       </c>
       <c r="E138" s="69">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="F138" s="10">
         <v>0</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B139" s="1">
-        <v>11124</v>
+        <v>11205</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D139" s="57">
         <v>1</v>
       </c>
       <c r="E139" s="69">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="F139" s="10">
         <v>0</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="1">
+        <v>11209</v>
+      </c>
+      <c r="C140" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="B140" s="1">
-        <v>11205</v>
-      </c>
-      <c r="C140" s="45" t="s">
+      <c r="D140" s="57">
+        <v>1</v>
+      </c>
+      <c r="E140" s="69">
+        <v>399</v>
+      </c>
+      <c r="F140" s="10">
+        <v>0</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D140" s="57">
-        <v>1</v>
-      </c>
-      <c r="E140" s="69">
-        <v>397</v>
-      </c>
-      <c r="F140" s="10">
-        <v>0</v>
-      </c>
-      <c r="G140" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="28" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="B141" s="1">
+        <v>11215</v>
+      </c>
+      <c r="C141" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B141" s="1">
-        <v>11209</v>
-      </c>
-      <c r="C141" s="45" t="s">
+      <c r="D141" s="57">
+        <v>1</v>
+      </c>
+      <c r="E141" s="69">
+        <v>406</v>
+      </c>
+      <c r="F141" s="10">
+        <v>0</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D141" s="57">
-        <v>1</v>
-      </c>
-      <c r="E141" s="69">
-        <v>399</v>
-      </c>
-      <c r="F141" s="10">
-        <v>0</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="B142" s="1">
+        <v>11246</v>
+      </c>
+      <c r="C142" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="B142" s="1">
-        <v>11215</v>
-      </c>
-      <c r="C142" s="45" t="s">
+      <c r="D142" s="57">
+        <v>1</v>
+      </c>
+      <c r="E142" s="69">
+        <v>407</v>
+      </c>
+      <c r="F142" s="10">
+        <v>0</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D142" s="57">
-        <v>1</v>
-      </c>
-      <c r="E142" s="69">
-        <v>406</v>
-      </c>
-      <c r="F142" s="10">
-        <v>0</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="42" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="B143" s="1">
+        <v>11257</v>
+      </c>
+      <c r="C143" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B143" s="1">
-        <v>11246</v>
-      </c>
-      <c r="C143" s="45" t="s">
-        <v>266</v>
-      </c>
       <c r="D143" s="57">
         <v>1</v>
       </c>
       <c r="E143" s="69">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="F143" s="10">
         <v>0</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B144" s="1">
-        <v>11257</v>
+        <v>11265</v>
       </c>
       <c r="C144" s="45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D144" s="57">
         <v>1</v>
       </c>
       <c r="E144" s="69">
-        <v>372</v>
+        <v>449</v>
       </c>
       <c r="F144" s="10">
         <v>0</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B145" s="1">
-        <v>11265</v>
+        <v>11278</v>
       </c>
       <c r="C145" s="45" t="s">
         <v>272</v>
@@ -4763,82 +4754,82 @@
         <v>1</v>
       </c>
       <c r="E145" s="69">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F145" s="10">
         <v>0</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B146" s="1">
+        <v>11282</v>
+      </c>
+      <c r="C146" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="B146" s="1">
-        <v>11278</v>
-      </c>
-      <c r="C146" s="45" t="s">
-        <v>275</v>
-      </c>
       <c r="D146" s="57">
         <v>1</v>
       </c>
       <c r="E146" s="69">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="F146" s="10">
         <v>0</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B147" s="1">
-        <v>11282</v>
+        <v>11422</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D147" s="57">
         <v>1</v>
       </c>
       <c r="E147" s="69">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F147" s="10">
         <v>0</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" s="1">
+        <v>11457</v>
+      </c>
+      <c r="C148" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="B148" s="1">
-        <v>11422</v>
-      </c>
-      <c r="C148" s="45" t="s">
-        <v>283</v>
-      </c>
       <c r="D148" s="57">
         <v>1</v>
       </c>
       <c r="E148" s="69">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F148" s="10">
         <v>0</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -4846,7 +4837,7 @@
         <v>284</v>
       </c>
       <c r="B149" s="1">
-        <v>11457</v>
+        <v>11529</v>
       </c>
       <c r="C149" s="45" t="s">
         <v>285</v>
@@ -4855,316 +4846,312 @@
         <v>1</v>
       </c>
       <c r="E149" s="69">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F149" s="10">
         <v>0</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" s="1">
+        <v>11546</v>
+      </c>
+      <c r="C150" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="B150" s="1">
-        <v>11529</v>
-      </c>
-      <c r="C150" s="45" t="s">
-        <v>288</v>
-      </c>
       <c r="D150" s="57">
         <v>1</v>
       </c>
-      <c r="E150" s="69">
-        <v>388</v>
+      <c r="E150" s="71">
+        <v>391</v>
       </c>
       <c r="F150" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="H150" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B151" s="1">
-        <v>11546</v>
-      </c>
-      <c r="C151" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="D151" s="57">
+        <v>295</v>
+      </c>
+      <c r="B151" s="49">
+        <v>11584</v>
+      </c>
+      <c r="C151" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D151" s="63">
         <v>1</v>
       </c>
       <c r="E151" s="71">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="F151" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="H151" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B152" s="49">
-        <v>11584</v>
-      </c>
-      <c r="C152" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="D152" s="63">
-        <v>1</v>
-      </c>
-      <c r="E152" s="71">
-        <v>473</v>
+        <v>254</v>
+      </c>
+      <c r="B152" s="1">
+        <v>11670</v>
+      </c>
+      <c r="C152" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D152" s="57">
+        <v>1</v>
+      </c>
+      <c r="E152" s="69">
+        <v>401</v>
       </c>
       <c r="F152" s="10">
         <v>0</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="B153" s="1">
-        <v>11670</v>
+        <v>11677</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D153" s="57">
         <v>1</v>
       </c>
       <c r="E153" s="69">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F153" s="10">
         <v>0</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="1">
+        <v>11885</v>
+      </c>
+      <c r="C154" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="D154" s="57">
+        <v>1</v>
+      </c>
+      <c r="E154" s="71">
+        <v>392</v>
+      </c>
+      <c r="F154" s="10">
+        <v>0</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B155" s="47">
+        <v>16055</v>
+      </c>
+      <c r="C155" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D155" s="63">
+        <v>1</v>
+      </c>
+      <c r="E155" s="69">
+        <v>461</v>
+      </c>
+      <c r="F155" s="10">
+        <v>0</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B156" s="25">
+        <v>16085</v>
+      </c>
+      <c r="C156" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="B154" s="1">
-        <v>11677</v>
-      </c>
-      <c r="C154" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D154" s="57">
-        <v>1</v>
-      </c>
-      <c r="E154" s="69">
-        <v>402</v>
-      </c>
-      <c r="F154" s="10">
-        <v>0</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B155" s="1">
-        <v>11885</v>
-      </c>
-      <c r="C155" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="D155" s="57">
-        <v>1</v>
-      </c>
-      <c r="E155" s="71">
-        <v>392</v>
-      </c>
-      <c r="F155" s="10">
-        <v>0</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B156" s="47">
-        <v>16055</v>
-      </c>
-      <c r="C156" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="D156" s="63">
-        <v>1</v>
+      <c r="D156" s="67">
+        <v>0</v>
       </c>
       <c r="E156" s="69">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="F156" s="10">
         <v>0</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="46" t="s">
-        <v>280</v>
-      </c>
-      <c r="B157" s="25">
-        <v>16085</v>
+        <v>266</v>
+      </c>
+      <c r="B157" s="1">
+        <v>20014</v>
       </c>
       <c r="C157" s="43" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D157" s="67">
         <v>0</v>
       </c>
       <c r="E157" s="69">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="F157" s="10">
         <v>0</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="B158" s="1">
-        <v>20014</v>
-      </c>
-      <c r="C158" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="D158" s="67">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C158" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D158" s="57">
         <v>0</v>
       </c>
       <c r="E158" s="69">
-        <v>446</v>
+        <v>568</v>
       </c>
       <c r="F158" s="10">
         <v>0</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C159" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D159" s="57">
-        <v>0</v>
-      </c>
-      <c r="E159" s="69">
-        <v>568</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B159" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C159" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="D159" s="58">
+        <v>0</v>
+      </c>
+      <c r="E159" s="75">
+        <v>567</v>
       </c>
       <c r="F159" s="10">
         <v>0</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="B160" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C160" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="D160" s="58">
-        <v>0</v>
-      </c>
-      <c r="E160" s="75">
-        <v>567</v>
-      </c>
+      <c r="A160" s="4"/>
+      <c r="B160" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D160" s="67">
+        <v>1</v>
+      </c>
+      <c r="E160" s="69"/>
       <c r="F160" s="10">
         <v>0</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="4"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="B161" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D161" s="67">
         <v>1</v>
       </c>
-      <c r="E161" s="69"/>
+      <c r="E161" s="69">
+        <v>393</v>
+      </c>
       <c r="F161" s="10">
         <v>0</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C162" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="D162" s="67">
-        <v>1</v>
+      <c r="A162" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B162" s="41"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="57">
+        <v>0</v>
       </c>
       <c r="E162" s="69">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F162" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B163" s="41"/>
       <c r="C163" s="45"/>
@@ -5172,40 +5159,40 @@
         <v>0</v>
       </c>
       <c r="E163" s="69">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="F163" s="10">
         <v>1</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
+      </c>
+      <c r="H163" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B164" s="41"/>
       <c r="C164" s="45"/>
       <c r="D164" s="57">
         <v>0</v>
       </c>
-      <c r="E164" s="69">
-        <v>451</v>
+      <c r="E164" s="71">
+        <v>471</v>
       </c>
       <c r="F164" s="10">
         <v>1</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="H164" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B165" s="41"/>
       <c r="C165" s="45"/>
@@ -5213,37 +5200,37 @@
         <v>0</v>
       </c>
       <c r="E165" s="71">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F165" s="10">
         <v>1</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B166" s="41"/>
       <c r="C166" s="45"/>
       <c r="D166" s="57">
         <v>0</v>
       </c>
-      <c r="E166" s="71">
-        <v>469</v>
+      <c r="E166" s="69">
+        <v>463</v>
       </c>
       <c r="F166" s="10">
         <v>1</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B167" s="41"/>
       <c r="C167" s="45"/>
@@ -5251,32 +5238,29 @@
         <v>0</v>
       </c>
       <c r="E167" s="69">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="F167" s="10">
         <v>1</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B168" s="41"/>
       <c r="C168" s="45"/>
       <c r="D168" s="57">
         <v>0</v>
       </c>
-      <c r="E168" s="69">
-        <v>420</v>
-      </c>
       <c r="F168" s="10">
         <v>1</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -5288,16 +5272,19 @@
       <c r="D169" s="57">
         <v>0</v>
       </c>
+      <c r="E169" s="71">
+        <v>476</v>
+      </c>
       <c r="F169" s="10">
         <v>1</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B170" s="41"/>
       <c r="C170" s="45"/>
@@ -5305,18 +5292,18 @@
         <v>0</v>
       </c>
       <c r="E170" s="71">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F170" s="10">
         <v>1</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B171" s="41"/>
       <c r="C171" s="45"/>
@@ -5324,55 +5311,36 @@
         <v>0</v>
       </c>
       <c r="E171" s="71">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F171" s="10">
         <v>1</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B172" s="41"/>
-      <c r="C172" s="45"/>
-      <c r="D172" s="57">
-        <v>0</v>
-      </c>
-      <c r="E172" s="71">
-        <v>475</v>
+      <c r="A172" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" s="19"/>
+      <c r="C172" s="51"/>
+      <c r="D172" s="59">
+        <v>0</v>
+      </c>
+      <c r="E172" s="76">
+        <v>474</v>
       </c>
       <c r="F172" s="10">
         <v>1</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B173" s="19"/>
-      <c r="C173" s="51"/>
-      <c r="D173" s="59">
-        <v>0</v>
-      </c>
-      <c r="E173" s="76">
-        <v>474</v>
-      </c>
-      <c r="F173" s="10">
-        <v>1</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H173">
+  <autoFilter ref="A1:H172">
     <sortState ref="A137:H176">
       <sortCondition ref="B1:B176"/>
     </sortState>
